--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lionel\SynologyDrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lionel\Documents\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CFA8E3-8F9F-4F57-8D6E-E680DC2DA35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8D33AB-E609-4449-BE08-452E4087E6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16185" yWindow="-15870" windowWidth="25440" windowHeight="15270" xr2:uid="{9A2E200A-48BE-45BE-8FE3-BA088CE811E3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="156">
   <si>
     <t>https://www.alliedelec.com/product/rs-pro-by-allied/7755328/70824480/</t>
   </si>
@@ -473,12 +473,6 @@
     <t>https://www.digikey.com/en/products/detail/chip-quik-inc/SBBTH1508-1/5978279</t>
   </si>
   <si>
-    <t>Rev 1.0</t>
-  </si>
-  <si>
-    <t>last update: 2023-02-20</t>
-  </si>
-  <si>
     <t>created: 2023-02-17</t>
   </si>
   <si>
@@ -501,6 +495,15 @@
   </si>
   <si>
     <t>All prices exclude VAT, custom duties, and shipping</t>
+  </si>
+  <si>
+    <t>Label maker (optional but strongly recommended)</t>
+  </si>
+  <si>
+    <t>last update: 2023-02-21</t>
+  </si>
+  <si>
+    <t>Rev 1.01</t>
   </si>
 </sst>
 </file>
@@ -989,11 +992,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB38408-1BF4-4ADA-85B9-32940D8A966A}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -1321,7 +1322,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A17" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>62</v>
@@ -1338,7 +1339,7 @@
         <v>2.38</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.75">
@@ -1446,7 +1447,7 @@
         <v>7.6</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.75">
@@ -1468,7 +1469,7 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.75">
@@ -2023,7 +2024,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A50" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>62</v>
@@ -2040,7 +2041,7 @@
         <v>1.17</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.75">
@@ -2377,7 +2378,7 @@
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
       <c r="F69" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.75">
@@ -2490,7 +2491,9 @@
       <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A81" s="30"/>
+      <c r="A81" s="30" t="s">
+        <v>153</v>
+      </c>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
@@ -2498,55 +2501,63 @@
       <c r="F81" s="29"/>
     </row>
     <row r="82" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="30"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="29"/>
+    </row>
+    <row r="83" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A83" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="32"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A83" t="s">
-        <v>80</v>
-      </c>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="32"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="D89" s="22"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="D93" s="22"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="D90" s="22"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.75">
       <c r="D94" s="22"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.75">
-      <c r="D97" s="22"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="D95" s="22"/>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.75">
       <c r="D98" s="22"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.75">
+      <c r="D99" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lionel\Documents\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8D33AB-E609-4449-BE08-452E4087E6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A675F762-718D-40AD-9B66-40D45D297A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16185" yWindow="-15870" windowWidth="25440" windowHeight="15270" xr2:uid="{9A2E200A-48BE-45BE-8FE3-BA088CE811E3}"/>
+    <workbookView xWindow="30" yWindow="5400" windowWidth="23685" windowHeight="15435" xr2:uid="{9A2E200A-48BE-45BE-8FE3-BA088CE811E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="157">
   <si>
     <t>https://www.alliedelec.com/product/rs-pro-by-allied/7755328/70824480/</t>
   </si>
@@ -500,10 +500,13 @@
     <t>Label maker (optional but strongly recommended)</t>
   </si>
   <si>
-    <t>last update: 2023-02-21</t>
-  </si>
-  <si>
-    <t>Rev 1.01</t>
+    <t>Drill with various size meshes</t>
+  </si>
+  <si>
+    <t>Rev 1.02</t>
+  </si>
+  <si>
+    <t>last update: 2023-06-22</t>
   </si>
 </sst>
 </file>
@@ -992,24 +995,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB38408-1BF4-4ADA-85B9-32940D8A966A}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.40625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="1"/>
-    <col min="7" max="7" width="148.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1"/>
+    <col min="7" max="7" width="148.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.75" x14ac:dyDescent="1.35">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -1032,7 +1037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -1043,7 +1048,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -1068,7 +1073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>69</v>
       </c>
@@ -1092,7 +1097,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>112</v>
       </c>
@@ -1117,7 +1122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>113</v>
       </c>
@@ -1140,7 +1145,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>114</v>
       </c>
@@ -1163,7 +1168,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
@@ -1186,7 +1191,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
@@ -1208,7 +1213,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
@@ -1230,7 +1235,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
@@ -1253,7 +1258,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>65</v>
       </c>
@@ -1276,7 +1281,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>91</v>
       </c>
@@ -1298,7 +1303,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>118</v>
       </c>
@@ -1320,7 +1325,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>146</v>
       </c>
@@ -1342,7 +1347,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>120</v>
       </c>
@@ -1364,7 +1369,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="17"/>
@@ -1373,7 +1378,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -1384,7 +1389,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>86</v>
       </c>
@@ -1406,7 +1411,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>71</v>
       </c>
@@ -1428,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>128</v>
       </c>
@@ -1450,7 +1455,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>77</v>
       </c>
@@ -1472,7 +1477,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
@@ -1494,7 +1499,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
@@ -1516,7 +1521,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1538,7 +1543,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -1582,7 +1587,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>73</v>
       </c>
@@ -1604,7 +1609,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>129</v>
       </c>
@@ -1626,7 +1631,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>130</v>
       </c>
@@ -1648,7 +1653,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>143</v>
       </c>
@@ -1670,7 +1675,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>96</v>
       </c>
@@ -1692,7 +1697,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>140</v>
       </c>
@@ -1714,7 +1719,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -1736,7 +1741,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>132</v>
       </c>
@@ -1758,7 +1763,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>133</v>
       </c>
@@ -1780,7 +1785,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>135</v>
       </c>
@@ -1802,7 +1807,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>6</v>
       </c>
@@ -1824,7 +1829,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>137</v>
       </c>
@@ -1846,7 +1851,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>75</v>
       </c>
@@ -1868,7 +1873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>78</v>
       </c>
@@ -1890,7 +1895,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>79</v>
       </c>
@@ -1912,7 +1917,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>57</v>
       </c>
@@ -1934,7 +1939,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>56</v>
       </c>
@@ -1956,7 +1961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
@@ -1978,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>117</v>
       </c>
@@ -2000,7 +2005,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>123</v>
       </c>
@@ -2022,7 +2027,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>150</v>
       </c>
@@ -2044,7 +2049,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>126</v>
       </c>
@@ -2066,7 +2071,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>127</v>
       </c>
@@ -2088,7 +2093,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="17"/>
@@ -2097,7 +2102,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>29</v>
       </c>
@@ -2108,7 +2113,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="14"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>20</v>
       </c>
@@ -2130,7 +2135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>88</v>
       </c>
@@ -2152,7 +2157,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>87</v>
       </c>
@@ -2174,7 +2179,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>74</v>
       </c>
@@ -2196,7 +2201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
@@ -2218,7 +2223,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>7</v>
       </c>
@@ -2240,7 +2245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>9</v>
       </c>
@@ -2262,7 +2267,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>4</v>
       </c>
@@ -2284,7 +2289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>122</v>
       </c>
@@ -2306,7 +2311,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="17"/>
@@ -2315,7 +2320,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>30</v>
       </c>
@@ -2326,7 +2331,7 @@
       <c r="F65" s="12"/>
       <c r="G65" s="11"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>115</v>
       </c>
@@ -2348,7 +2353,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2357,7 +2362,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="33" t="s">
         <v>60</v>
       </c>
@@ -2371,7 +2376,7 @@
       </c>
       <c r="G68" s="11"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -2381,7 +2386,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
@@ -2389,7 +2394,7 @@
       <c r="E70" s="25"/>
       <c r="F70" s="26"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="31" t="s">
         <v>110</v>
       </c>
@@ -2400,7 +2405,7 @@
       <c r="F71" s="24"/>
       <c r="G71" s="32"/>
     </row>
-    <row r="72" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>107</v>
       </c>
@@ -2410,9 +2415,9 @@
       <c r="E72" s="28"/>
       <c r="F72" s="29"/>
     </row>
-    <row r="73" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
@@ -2420,9 +2425,9 @@
       <c r="E73" s="28"/>
       <c r="F73" s="29"/>
     </row>
-    <row r="74" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
@@ -2430,9 +2435,9 @@
       <c r="E74" s="28"/>
       <c r="F74" s="29"/>
     </row>
-    <row r="75" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
@@ -2440,9 +2445,9 @@
       <c r="E75" s="28"/>
       <c r="F75" s="29"/>
     </row>
-    <row r="76" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
@@ -2450,9 +2455,9 @@
       <c r="E76" s="28"/>
       <c r="F76" s="29"/>
     </row>
-    <row r="77" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
@@ -2460,9 +2465,9 @@
       <c r="E77" s="28"/>
       <c r="F77" s="29"/>
     </row>
-    <row r="78" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
@@ -2470,9 +2475,9 @@
       <c r="E78" s="28"/>
       <c r="F78" s="29"/>
     </row>
-    <row r="79" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
@@ -2480,9 +2485,9 @@
       <c r="E79" s="28"/>
       <c r="F79" s="29"/>
     </row>
-    <row r="80" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
@@ -2490,9 +2495,9 @@
       <c r="E80" s="28"/>
       <c r="F80" s="29"/>
     </row>
-    <row r="81" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
@@ -2500,64 +2505,74 @@
       <c r="E81" s="28"/>
       <c r="F81" s="29"/>
     </row>
-    <row r="82" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A82" s="30"/>
+    <row r="82" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="30" t="s">
+        <v>153</v>
+      </c>
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
       <c r="E82" s="28"/>
       <c r="F82" s="29"/>
     </row>
-    <row r="83" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A83" s="31" t="s">
+    <row r="83" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="30"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="29"/>
+    </row>
+    <row r="84" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="32"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A84" t="s">
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="32"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A85" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A86" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A87" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="D90" s="22"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="D94" s="22"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D91" s="22"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D95" s="22"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.75">
-      <c r="D98" s="22"/>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D96" s="22"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="22"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
